--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4223176.722828739</v>
+        <v>4294828.515388787</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>682213.8818051493</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7224034.318661705</v>
+        <v>7128926.794513971</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>251.695345650331</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,13 +670,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,16 +709,16 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>132.3401402600194</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>9.764863467406547</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,10 +879,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>128.7835007017899</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>306.4922646353241</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>95.63040571242813</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.91242278797865</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>201.1439140868016</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1151,7 +1153,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>24.54438765385231</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>8.683458733635206</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1291,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>126.3298627762801</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>173.7369687963019</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1382,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>161.944641497876</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>138.975941563894</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>10.6008424151628</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>177.7059714321714</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2050,22 +2052,22 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.7512870710572</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>149.1725893558998</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,22 +2289,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>143.9705362099826</v>
+        <v>37.81832196079215</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2372,7 +2374,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>89.02603160619796</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2536,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>209.7629556623152</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2612,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>17.13387053928689</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>182.0185426809072</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>48.30359085066338</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329056</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789601</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>42.2873553346313</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415211</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593962</v>
+        <v>172.8023155905376</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>87.60442205160145</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>218.105462268937</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,19 +3511,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3597,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>57.85017494300387</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463105</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539626</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287486</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593965</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896914</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274054</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051987</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3834,10 +3836,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H42" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262918</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014433</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>63.12760679710617</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463105</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689367</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4040,7 +4042,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784697</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>82.90650555705355</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>192.6211591710424</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2118.304160219349</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C2" t="n">
-        <v>1749.341643278937</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2508.443492195161</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2508.443492195161</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2508.443492195161</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2118.304160219349</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>718.2654857545084</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>718.2654857545084</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>718.2654857545084</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>718.2654857545084</v>
       </c>
       <c r="V4" t="n">
-        <v>2442.464602812336</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="W4" t="n">
-        <v>2153.047432775375</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X4" t="n">
-        <v>2022.963088632153</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>2022.963088632153</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1714.909333753394</v>
+        <v>1515.02307474038</v>
       </c>
       <c r="C5" t="n">
-        <v>1345.946816812982</v>
+        <v>1146.060557799969</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.946816812982</v>
+        <v>787.7948591932184</v>
       </c>
       <c r="E5" t="n">
-        <v>1345.946816812982</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>934.9609120233749</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>516.9971039215618</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2545.524032142222</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990286</v>
+        <v>2545.524032142222</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990286</v>
+        <v>2291.762246780314</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.514423990286</v>
+        <v>2291.762246780314</v>
       </c>
       <c r="W5" t="n">
-        <v>2478.514423990286</v>
+        <v>2291.762246780314</v>
       </c>
       <c r="X5" t="n">
-        <v>2105.048665729206</v>
+        <v>2291.762246780314</v>
       </c>
       <c r="Y5" t="n">
-        <v>1714.909333753394</v>
+        <v>1901.622914804502</v>
       </c>
     </row>
     <row r="6">
@@ -4641,10 +4643,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
@@ -4653,16 +4655,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4732,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>712.0558298751428</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>563.9091713093267</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>563.9091713093267</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="T7" t="n">
-        <v>563.9091713093267</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="U7" t="n">
-        <v>274.7355609638946</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="V7" t="n">
-        <v>274.7355609638946</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="W7" t="n">
-        <v>274.7355609638946</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>484.4236418782189</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1156.75737613363</v>
+        <v>1714.263756178945</v>
       </c>
       <c r="C8" t="n">
-        <v>787.7948591932184</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>787.7948591932184</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>402.0066065949742</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2617.328090787249</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2286.265203443678</v>
+        <v>2457.17174342487</v>
       </c>
       <c r="W8" t="n">
-        <v>1933.496548173563</v>
+        <v>2104.403088154756</v>
       </c>
       <c r="X8" t="n">
-        <v>1933.496548173563</v>
+        <v>2104.403088154756</v>
       </c>
       <c r="Y8" t="n">
-        <v>1543.357216197752</v>
+        <v>1714.263756178945</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4887,13 +4889,13 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,22 +4904,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>268.5356891811371</v>
+        <v>181.548903816607</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>181.548903816607</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>181.548903816607</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>181.548903816607</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>181.548903816607</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>181.548903816607</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V10" t="n">
-        <v>444.0275768541693</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="W10" t="n">
-        <v>268.5356891811371</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="X10" t="n">
-        <v>268.5356891811371</v>
+        <v>181.548903816607</v>
       </c>
       <c r="Y10" t="n">
-        <v>268.5356891811371</v>
+        <v>181.548903816607</v>
       </c>
     </row>
     <row r="11">
@@ -5021,55 +5023,55 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5115,22 +5117,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O12" t="n">
         <v>2016.139981183168</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>552.6620995918039</v>
+        <v>394.223678370532</v>
       </c>
       <c r="C13" t="n">
-        <v>552.6620995918039</v>
+        <v>394.223678370532</v>
       </c>
       <c r="D13" t="n">
-        <v>552.6620995918039</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W13" t="n">
-        <v>955.1031435655738</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X13" t="n">
-        <v>955.1031435655738</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y13" t="n">
-        <v>734.3105644220436</v>
+        <v>557.8041243279824</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5270,37 +5272,37 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231264</v>
@@ -5321,7 +5323,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>1206.718781115523</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404652</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404652</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404652</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1488.208348926425</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1488.208348926425</v>
       </c>
       <c r="T16" t="n">
-        <v>1319.415289313285</v>
+        <v>1264.422933715931</v>
       </c>
       <c r="U16" t="n">
-        <v>1030.286650526843</v>
+        <v>1264.422933715931</v>
       </c>
       <c r="V16" t="n">
-        <v>775.602162320956</v>
+        <v>1009.738445510044</v>
       </c>
       <c r="W16" t="n">
-        <v>486.1849922839954</v>
+        <v>1009.738445510044</v>
       </c>
       <c r="X16" t="n">
-        <v>486.1849922839954</v>
+        <v>781.7488946120263</v>
       </c>
       <c r="Y16" t="n">
-        <v>265.3924131404652</v>
+        <v>560.9563154684962</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5506,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5528,28 +5530,28 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
@@ -5589,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701562</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766204</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>355.6416303362487</v>
+        <v>4015.911034827088</v>
       </c>
       <c r="C19" t="n">
-        <v>355.6416303362487</v>
+        <v>4015.911034827088</v>
       </c>
       <c r="D19" t="n">
-        <v>355.6416303362487</v>
+        <v>4015.911034827088</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>3867.997941244695</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>4660.934562929846</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>4525.832252757061</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>4236.703613970619</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>4236.703613970619</v>
       </c>
       <c r="W19" t="n">
-        <v>804.4237603777962</v>
+        <v>4236.703613970619</v>
       </c>
       <c r="X19" t="n">
-        <v>576.4342094797788</v>
+        <v>4236.703613970619</v>
       </c>
       <c r="Y19" t="n">
-        <v>355.6416303362487</v>
+        <v>4015.911034827088</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>846.9127704725951</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
         <v>2612.943493278838</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>416.2699138005285</v>
+        <v>584.7466045204288</v>
       </c>
       <c r="C22" t="n">
-        <v>247.3337308726216</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5937,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>964.1357418247858</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>964.1357418247858</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W22" t="n">
-        <v>964.1357418247858</v>
+        <v>843.7395088768803</v>
       </c>
       <c r="X22" t="n">
-        <v>818.7109577742983</v>
+        <v>805.539183663959</v>
       </c>
       <c r="Y22" t="n">
-        <v>597.9183786307682</v>
+        <v>584.7466045204288</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,34 +5974,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,10 +6013,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>994.3109288932102</v>
+        <v>674.9958217162124</v>
       </c>
       <c r="C25" t="n">
-        <v>825.3747459653033</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="D25" t="n">
-        <v>675.2581065529675</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="E25" t="n">
-        <v>527.3450129705744</v>
+        <v>506.0596387883055</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705744</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
         <v>359.1696912903951</v>
@@ -6142,7 +6144,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6151,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V25" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W25" t="n">
-        <v>1387.841167119728</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="X25" t="n">
-        <v>1387.841167119728</v>
+        <v>985.7136853104475</v>
       </c>
       <c r="Y25" t="n">
-        <v>1175.95939372345</v>
+        <v>764.9211061669174</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6218,7 +6220,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6227,7 +6229,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6236,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6257,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>879.2482765610114</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C28" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1281.689320534781</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>1281.689320534781</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="V28" t="n">
-        <v>1281.689320534781</v>
+        <v>898.7925182488384</v>
       </c>
       <c r="W28" t="n">
-        <v>1281.689320534781</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X28" t="n">
-        <v>1281.689320534781</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y28" t="n">
-        <v>1060.896741391251</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="29">
@@ -6455,43 +6457,43 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.357857465301</v>
@@ -6540,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>1196.088769018223</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M30" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1833.271529962218</v>
+        <v>2032.925401907737</v>
       </c>
       <c r="O30" t="n">
-        <v>2112.811595180915</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108334</v>
+        <v>826.1356072130308</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229676</v>
+        <v>657.1994242851239</v>
       </c>
       <c r="D31" t="n">
-        <v>478.047598850673</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E31" t="n">
-        <v>398.954596308321</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504518</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103134</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M31" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P31" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W31" t="n">
-        <v>1083.430560862497</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="X31" t="n">
-        <v>924.261101004521</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901032</v>
+        <v>874.9271131227918</v>
       </c>
     </row>
     <row r="32">
@@ -6677,28 +6679,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514085</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6780,25 +6782,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771663</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045208</v>
+        <v>835.3198281612173</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010318</v>
+        <v>835.3198281612173</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,28 +6937,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,19 +7016,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>148.5096761832847</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>559.3999450277973</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>806.1650729342614</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1113.485206214223</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O36" t="n">
         <v>2112.811595180915</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>484.0375086983735</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229665</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506719</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083199</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,61 +7165,61 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.1647015151</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643328</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899133</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207836</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="39">
@@ -7236,40 +7238,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256437</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277041</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341689</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1198.760773441945</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.623401105978</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324676</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>155.6516116047342</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>320.884739850451</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>139.931591798297</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688077</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799373</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471205</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1298.996260473457</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1075.210845262963</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>786.0822064765214</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>786.0822064765214</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>786.0822064765214</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>558.092655578504</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>337.3000764349739</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7390,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823792</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795201</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619125</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7473,40 +7475,40 @@
         <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047444</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316293</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358146</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675023</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126485</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571617</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>953.647282861511</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253973</v>
       </c>
       <c r="N42" t="n">
-        <v>2032.925401907738</v>
+        <v>2051.878056918007</v>
       </c>
       <c r="O42" t="n">
-        <v>2312.465467126435</v>
+        <v>2331.418122136704</v>
       </c>
       <c r="P42" t="n">
-        <v>2517.487947908644</v>
+        <v>2536.440602918914</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>738.7219969042629</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>674.9567375132466</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>524.8400981009108</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103126</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="H43" t="n">
-        <v>139.931591798297</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>259.7851881688077</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>507.4972331799373</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>779.0639759471205</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1049.608084974669</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1283.483062980066</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1460.082827585749</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1498.916270557905</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1209.787631771463</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1209.787631771463</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>920.3704617345027</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>920.3704617345027</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>920.3704617345027</v>
       </c>
     </row>
     <row r="44">
@@ -7631,40 +7633,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7682,10 +7684,10 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
         <v>3205.060556590536</v>
@@ -7728,22 +7730,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>592.8217113586345</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115523</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>247.3337308726216</v>
+        <v>644.700260475621</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>475.7640775477141</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7837,19 +7839,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X46" t="n">
-        <v>247.3337308726216</v>
+        <v>1047.141304449391</v>
       </c>
       <c r="Y46" t="n">
-        <v>247.3337308726216</v>
+        <v>826.3487253058607</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,7 +8537,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050818</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
@@ -8544,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,19 +8771,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>306.1147370139963</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>91.23759968302096</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>288.409182577675</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9021,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>43.65987261462459</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9176,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627452</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9240,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>403.7628319612147</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,28 +9479,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>5.100663089359614</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>360.5026862907256</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>285.1031356539329</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10194,25 +10196,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>277.6717966208062</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>19.14409596997166</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>159.0121003135246</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>9.90051268448611</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10677,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>277.6717966208062</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10841,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10908,22 +10910,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>360.5026862907208</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445199</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.661214550443</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11142,13 +11144,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>32.78140656351985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>19.14409596997011</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445199</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11376,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>182.0340742867944</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>17.88733868406132</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>7.458021082675202</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23464,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,19 +23655,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>99.36350998862999</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>43.84158962621783</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,22 +23940,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>87.796273987332</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>137.3504089806912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,22 +24177,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>81.73911917905457</v>
+        <v>187.891333428245</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>90.80594857573934</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -24424,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.82169768977954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,22 +24600,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>204.4136905191024</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>104.5044556556838</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>131.5283893312739</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>52.90733979849958</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>79.64239904702639</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>109.396646155624</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,10 +25608,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>104.1192143015217</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>65.70896746115881</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26077,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>33.08849621799476</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>637168.1412945075</v>
+        <v>607930.4035028582</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>637168.1412945075</v>
+        <v>607930.4035028582</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>637168.1412945075</v>
+        <v>607930.403502858</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>637168.1412945075</v>
+        <v>607930.4035028582</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>637168.1412945075</v>
+        <v>607930.4035028582</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754173</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="F2" t="n">
         <v>782058.1194754177</v>
       </c>
       <c r="G2" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="H2" t="n">
-        <v>782058.1194754174</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="I2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="J2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="K2" t="n">
         <v>782058.1194754175</v>
       </c>
-      <c r="J2" t="n">
-        <v>782058.1194754175</v>
-      </c>
-      <c r="K2" t="n">
-        <v>821041.7698642843</v>
-      </c>
       <c r="L2" t="n">
-        <v>821041.7698642844</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="M2" t="n">
-        <v>821041.7698642843</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="N2" t="n">
-        <v>821041.7698642842</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="O2" t="n">
-        <v>821041.7698642845</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754178</v>
       </c>
     </row>
     <row r="3">
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>54505.51210371254</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,10 +26401,10 @@
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>9.719646508027178e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>4.82703532317577e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26442,22 +26444,22 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>44593.3948281912</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819118</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819119</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819119</v>
+        <v>22174.60758687062</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>22174.60758687065</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687068</v>
+        <v>22174.60758687071</v>
       </c>
     </row>
     <row r="5">
@@ -26470,22 +26472,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26494,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.1058200254</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17418.05520019494</v>
+        <v>-17418.05520019523</v>
       </c>
       <c r="C6" t="n">
-        <v>572549.8240143495</v>
+        <v>572549.8240143493</v>
       </c>
       <c r="D6" t="n">
-        <v>572549.8240143493</v>
+        <v>572549.8240143494</v>
       </c>
       <c r="E6" t="n">
-        <v>142736.1494629339</v>
+        <v>142736.1494629341</v>
       </c>
       <c r="F6" t="n">
         <v>667896.1859398304</v>
       </c>
       <c r="G6" t="n">
-        <v>667896.1859398307</v>
+        <v>667896.1859398304</v>
       </c>
       <c r="H6" t="n">
-        <v>667896.1859398301</v>
+        <v>667896.1859398304</v>
       </c>
       <c r="I6" t="n">
-        <v>667896.1859398303</v>
+        <v>667896.1859398304</v>
       </c>
       <c r="J6" t="n">
-        <v>491472.9667472374</v>
+        <v>491472.9667472376</v>
       </c>
       <c r="K6" t="n">
-        <v>624227.7571123552</v>
+        <v>667896.1859398304</v>
       </c>
       <c r="L6" t="n">
-        <v>678733.2692160679</v>
+        <v>667896.1859398305</v>
       </c>
       <c r="M6" t="n">
-        <v>543932.2539822306</v>
+        <v>533095.1707059932</v>
       </c>
       <c r="N6" t="n">
-        <v>678733.2692160676</v>
+        <v>667896.1859398296</v>
       </c>
       <c r="O6" t="n">
-        <v>678733.269216068</v>
+        <v>667896.1859398305</v>
       </c>
       <c r="P6" t="n">
-        <v>667896.1859398306</v>
+        <v>667896.1859398314</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26741,19 +26743,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26762,22 +26764,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541017</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26790,7 +26792,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.033794153969713e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26993,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.477928890381008e-12</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-6.797702758081474e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>131.0384960131496</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>195.4121182101155</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27582,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>136.9003285127513</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,10 +27599,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>96.92615468724728</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>17.43050812903306</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>78.78530709654341</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.21032716693566</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>17.44073926529322</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>226.679779854437</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>319.0687997364997</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>29.84102606551505</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,16 +28067,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>112.7860295402891</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30229,7 +30231,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-1.567573657086604e-12</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30274,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-6.033794153969713e-14</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30286,7 +30288,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-6.033794153969713e-14</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32227,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33351,10 +33353,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443622</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444951</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176654</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961209</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041495</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304449</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565528</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927196</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540896</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130947001</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647502</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446481</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104662</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562946</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354898</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354106</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386728</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127075</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215737</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622987</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358991</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724854</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481347</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855533</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458555</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.994806871096</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>110.895220109512</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.1761272367747</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361502</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680333</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081167</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990347</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298637</v>
       </c>
       <c r="J43" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822385</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557937</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196128</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171323</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263754</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065636</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469076</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235693</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337681</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336905</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892256</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351828</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34793,10 +34795,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35033,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>555.3724419700205</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>373.6013019241291</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,13 +35725,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>537.6668875336993</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504663</v>
@@ -35741,7 +35743,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>250.7532875461493</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35887,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>714.187209011681</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
@@ -35978,13 +35980,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>315.5250401398259</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>670.9270633411919</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,13 +36454,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>595.5275127043992</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36916,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>526.9295015768305</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>301.5077982110797</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520621</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N31" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>492.2066737115375</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>51.81069163939276</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37391,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>560.0354988619143</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109081</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349844</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490697</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879397</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.257704956025</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>670.9270633411878</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714625</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209236</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L40" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M40" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415084</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303338</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109007</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221126</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081129</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951482</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109132</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502054</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349844</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953158</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005183</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>282.0391115195448</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004669</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980136</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411089</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315253</v>
       </c>
       <c r="Q42" t="n">
-        <v>107.1571287550442</v>
+        <v>88.0130327850745</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>12.50777016556572</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>151.7024285299109</v>
       </c>
       <c r="L43" t="n">
-        <v>318.3460770095692</v>
+        <v>250.2141868799289</v>
       </c>
       <c r="M43" t="n">
-        <v>342.4417313086132</v>
+        <v>274.3098411789729</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>273.276877805604</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>236.2373515206032</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>178.3836006118011</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.3575901015154</v>
+        <v>39.22569997187496</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>332.6095128747336</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_3_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4287811.500497076</v>
+        <v>4292750.763346107</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>235.8588934499577</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>285.070989803373</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>39.51885255793416</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>25.73468253713836</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>30.60408762095414</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.52687838733176</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>337.455017953679</v>
       </c>
       <c r="X8" t="n">
-        <v>96.36163317610354</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>110.0115294480443</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385021</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>23.54872654977494</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,7 +1624,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113179</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>45.21952718910648</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498009</v>
+        <v>251.0785952498011</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002178</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2292,13 +2292,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>95.02525064967651</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>121.9303464341697</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>5.562624396425339</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>33.35146980185925</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002183</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>144.4797853959765</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385023</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>81.90355835744664</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1461.147548391485</v>
+        <v>1117.513150920515</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>748.5506339801032</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177354</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628376</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.752638628376</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.752638628376</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="X2" t="n">
-        <v>1851.286880367296</v>
+        <v>1507.652482896327</v>
       </c>
       <c r="Y2" t="n">
-        <v>1461.147548391485</v>
+        <v>1117.513150920515</v>
       </c>
     </row>
     <row r="3">
@@ -4400,13 +4400,13 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4470,25 +4470,25 @@
         <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.1126181035247</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="C5" t="n">
-        <v>863.1126181035247</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D5" t="n">
-        <v>504.8469194967742</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>504.8469194967742</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>93.86101470716665</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2671.15446219283</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2671.15446219283</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2671.15446219283</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2340.091574849259</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1987.322919579145</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1613.857161318065</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1223.717829342253</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
         <v>1313.210296315296</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C7" t="n">
-        <v>544.5191867458693</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D7" t="n">
-        <v>394.4025473335336</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511404</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323009</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323009</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323009</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>84.85620163951003</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y7" t="n">
-        <v>713.4553696737762</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1206.080506218543</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
         <v>478.8522906713811</v>
@@ -4795,61 +4795,61 @@
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2356.285436519557</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1982.819678258477</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1592.680346282665</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>617.006227188208</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W10" t="n">
-        <v>327.5890571512474</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5026,13 +5026,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,25 +5041,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5071,19 +5071,19 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,13 +5120,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
         <v>1247.466478653857</v>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>1186.00103929694</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>896.5838692599799</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>668.5943183619626</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,13 +5263,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,7 +5278,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5363,19 +5363,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>563.7235867775518</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1332.091733170013</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1661.954360834046</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2507.25999687553</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="17">
@@ -5494,19 +5494,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,13 +5515,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5536,7 +5536,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5582,25 +5582,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775518</v>
+        <v>563.7235867775516</v>
       </c>
       <c r="M18" t="n">
         <v>1332.091733170013</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,13 +5691,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
         <v>1382.222354598086</v>
@@ -5755,7 +5755,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,7 +5770,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5940,10 +5940,10 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
         <v>614.6238123952637</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>1402.931168891562</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>1402.931168891562</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="26">
@@ -6223,16 +6223,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6241,19 +6241,19 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>557.490562163493</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>388.5543792355861</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>388.5543792355861</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>388.5543792355861</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>388.5543792355861</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>220.3790575554067</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>959.9316061372629</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>739.1390269937327</v>
       </c>
     </row>
     <row r="29">
@@ -6454,40 +6454,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>675.0071030383447</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324578</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>130.9054447954972</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6688,31 +6688,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6724,7 +6724,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T34" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6919,16 +6919,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,28 +6937,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2317.834075963124</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7098,13 +7098,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.921157035281</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1041.981979867628</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>752.8533410811858</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>498.168852875299</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>208.7516828383384</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7174,25 +7174,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7335,13 +7335,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="41">
@@ -7402,16 +7402,16 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
@@ -7423,7 +7423,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7602,13 +7602,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X43" t="n">
         <v>97.21709146028584</v>
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7642,19 +7642,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>441.900558318119</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747075</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783517</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8534,13 +8534,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142009</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>29.47535963978235</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9248,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978231</v>
+        <v>29.47535963978197</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208057</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298102</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208057</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23466,16 +23466,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>228.588916774053</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23661,10 +23661,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>173.3651261629883</v>
       </c>
     </row>
     <row r="17">
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338545</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>191.2121017489008</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>26.98348193336646</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,25 +24651,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>192.3581855871779</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>192.3581855871779</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.393833183385</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>77.06777566241274</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25560,7 +25560,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>84.59001010593094</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642829</v>
+        <v>821041.769864283</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="D2" t="n">
         <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
+        <v>782058.1194754175</v>
+      </c>
+      <c r="F2" t="n">
         <v>782058.1194754177</v>
       </c>
-      <c r="F2" t="n">
-        <v>782058.1194754178</v>
-      </c>
       <c r="G2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="H2" t="n">
         <v>782058.1194754175</v>
@@ -26337,25 +26337,25 @@
         <v>782058.1194754178</v>
       </c>
       <c r="J2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="K2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="L2" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="M2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="N2" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="O2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="P2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754177</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925932</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687075</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
@@ -26441,16 +26441,16 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687066</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
         <v>22174.60758687071</v>
@@ -26472,19 +26472,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26493,7 +26493,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
@@ -26502,16 +26502,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17418.05520019538</v>
+        <v>-17418.05520019523</v>
       </c>
       <c r="C6" t="n">
-        <v>572549.8240143494</v>
+        <v>572549.8240143491</v>
       </c>
       <c r="D6" t="n">
-        <v>572549.8240143491</v>
+        <v>572549.8240143493</v>
       </c>
       <c r="E6" t="n">
-        <v>141761.5582032128</v>
+        <v>142638.6903369618</v>
       </c>
       <c r="F6" t="n">
-        <v>666921.5946801088</v>
+        <v>667798.7268138583</v>
       </c>
       <c r="G6" t="n">
-        <v>666921.5946801088</v>
+        <v>667798.7268138583</v>
       </c>
       <c r="H6" t="n">
-        <v>666921.5946801086</v>
+        <v>667798.7268138583</v>
       </c>
       <c r="I6" t="n">
-        <v>666921.5946801088</v>
+        <v>667798.7268138584</v>
       </c>
       <c r="J6" t="n">
-        <v>490498.3754875158</v>
+        <v>491375.5076212654</v>
       </c>
       <c r="K6" t="n">
-        <v>666921.5946801089</v>
+        <v>667798.7268138581</v>
       </c>
       <c r="L6" t="n">
-        <v>666921.5946801091</v>
+        <v>667798.7268138583</v>
       </c>
       <c r="M6" t="n">
-        <v>532120.5794462718</v>
+        <v>532997.7115800213</v>
       </c>
       <c r="N6" t="n">
-        <v>666921.5946801091</v>
+        <v>667798.7268138581</v>
       </c>
       <c r="O6" t="n">
-        <v>666921.5946801091</v>
+        <v>667798.7268138581</v>
       </c>
       <c r="P6" t="n">
-        <v>666921.5946801088</v>
+        <v>667798.7268138583</v>
       </c>
     </row>
   </sheetData>
@@ -26740,19 +26740,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
@@ -26761,25 +26761,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="C4" t="n">
         <v>674.2872727545555</v>
       </c>
-      <c r="C4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,32 +27011,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>540.9263704990175</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545555</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>540.9263704990174</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>129.4139983210498</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>69.61205181730992</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>374.2653174628608</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>148.6810302718332</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>14.59587156758287</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>14.59587156758251</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27861,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>11.78595076373398</v>
       </c>
       <c r="X8" t="n">
-        <v>273.3694675023655</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>142.1261138757837</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,25 +31460,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,25 +31697,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32937,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,37 +32949,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.145920326212</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35108,10 +35108,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
         <v>776.1294408004661</v>
@@ -35746,7 +35746,7 @@
         <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>117.4883924248565</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958066</v>
+        <v>278.7330645958064</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523304</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523304</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
